--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 BA.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="820">
   <si>
     <t>Course</t>
   </si>
@@ -1375,6 +1375,21 @@
     <t>8.75%</t>
   </si>
   <si>
+    <t>INFO-361</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>52.04%</t>
+  </si>
+  <si>
+    <t>37.76%</t>
+  </si>
+  <si>
+    <t>10.20%</t>
+  </si>
+  <si>
     <t>INFO-364</t>
   </si>
   <si>
@@ -1858,6 +1873,15 @@
     <t>42.59%</t>
   </si>
   <si>
+    <t>MGMT-452</t>
+  </si>
+  <si>
+    <t>GOMEZ-MEJIA L</t>
+  </si>
+  <si>
+    <t>68.00%</t>
+  </si>
+  <si>
     <t>MGMT-460</t>
   </si>
   <si>
@@ -1963,6 +1987,15 @@
     <t>MGMT-470</t>
   </si>
   <si>
+    <t>MGMT-475</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
+    <t>68.97%</t>
+  </si>
+  <si>
     <t>MGMT-489</t>
   </si>
   <si>
@@ -2038,6 +2071,9 @@
     <t>CORNWELL B</t>
   </si>
   <si>
+    <t>MGMT-636</t>
+  </si>
+  <si>
     <t>MGMT-637</t>
   </si>
   <si>
@@ -2063,6 +2099,9 @@
   </si>
   <si>
     <t>27.78%</t>
+  </si>
+  <si>
+    <t>92.31%</t>
   </si>
   <si>
     <t>MGMT-640</t>
@@ -2771,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H561"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5880,16 +5919,16 @@
         <v>454</v>
       </c>
       <c r="C286" t="n">
-        <v>3.571</v>
+        <v>3.4185</v>
       </c>
       <c r="D286" t="s">
         <v>455</v>
       </c>
       <c r="E286" t="s">
-        <v>139</v>
+        <v>456</v>
       </c>
       <c r="F286" t="s">
-        <v>90</v>
+        <v>457</v>
       </c>
       <c r="G286" t="s">
         <v>51</v>
@@ -5898,98 +5937,98 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>456</v>
-      </c>
-      <c r="C287" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="D287" t="s">
-        <v>118</v>
-      </c>
-      <c r="E287" t="s">
-        <v>457</v>
-      </c>
-      <c r="F287" t="s">
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
         <v>458</v>
-      </c>
-      <c r="G287" t="s">
-        <v>459</v>
-      </c>
-      <c r="H287" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="B288" t="s">
-        <v>439</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3.036</v>
-      </c>
-      <c r="D288" t="s">
-        <v>107</v>
-      </c>
-      <c r="E288" t="s">
-        <v>461</v>
-      </c>
-      <c r="F288" t="s">
-        <v>462</v>
-      </c>
-      <c r="G288" t="s">
-        <v>463</v>
-      </c>
-      <c r="H288" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="B289" t="s">
+        <v>459</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D289" t="s">
+        <v>460</v>
+      </c>
+      <c r="E289" t="s">
+        <v>139</v>
+      </c>
+      <c r="F289" t="s">
+        <v>90</v>
+      </c>
+      <c r="G289" t="s">
+        <v>51</v>
+      </c>
+      <c r="H289" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>461</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="D290" t="s">
+        <v>118</v>
+      </c>
+      <c r="E290" t="s">
+        <v>462</v>
+      </c>
+      <c r="F290" t="s">
+        <v>463</v>
+      </c>
+      <c r="G290" t="s">
         <v>464</v>
       </c>
-      <c r="C289" t="n">
-        <v>2.993</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="H290" t="s">
         <v>465</v>
       </c>
-      <c r="E289" t="s">
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>439</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.036</v>
+      </c>
+      <c r="D291" t="s">
+        <v>107</v>
+      </c>
+      <c r="E291" t="s">
         <v>466</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F291" t="s">
         <v>467</v>
       </c>
-      <c r="G289" t="s">
-        <v>296</v>
-      </c>
-      <c r="H289" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
+      <c r="G291" t="s">
         <v>468</v>
+      </c>
+      <c r="H291" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="B292" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="C292" t="n">
-        <v>2.987</v>
+        <v>2.993</v>
       </c>
       <c r="D292" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E292" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F292" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G292" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
       <c r="H292" t="s">
         <v>51</v>
@@ -6002,10 +6041,10 @@
     </row>
     <row r="295" spans="1:8">
       <c r="B295" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="C295" t="n">
-        <v>3.355</v>
+        <v>2.987</v>
       </c>
       <c r="D295" t="s">
         <v>474</v>
@@ -6017,7 +6056,7 @@
         <v>476</v>
       </c>
       <c r="G295" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H295" t="s">
         <v>51</v>
@@ -6025,78 +6064,78 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="B298" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="C298" t="n">
-        <v>3.576</v>
+        <v>3.355</v>
       </c>
       <c r="D298" t="s">
         <v>479</v>
       </c>
       <c r="E298" t="s">
+        <v>480</v>
+      </c>
+      <c r="F298" t="s">
+        <v>481</v>
+      </c>
+      <c r="G298" t="s">
+        <v>481</v>
+      </c>
+      <c r="H298" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="B301" t="s">
+        <v>483</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="D301" t="s">
+        <v>484</v>
+      </c>
+      <c r="E301" t="s">
         <v>43</v>
       </c>
-      <c r="F298" t="s">
-        <v>480</v>
-      </c>
-      <c r="G298" t="s">
-        <v>51</v>
-      </c>
-      <c r="H298" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>436</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.219</v>
-      </c>
-      <c r="D299" t="s">
-        <v>481</v>
-      </c>
-      <c r="E299" t="s">
-        <v>482</v>
-      </c>
-      <c r="F299" t="s">
-        <v>423</v>
-      </c>
-      <c r="G299" t="s">
-        <v>211</v>
-      </c>
-      <c r="H299" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>483</v>
+      <c r="F301" t="s">
+        <v>485</v>
+      </c>
+      <c r="G301" t="s">
+        <v>51</v>
+      </c>
+      <c r="H301" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="C302" t="n">
-        <v>3.444</v>
+        <v>3.219</v>
       </c>
       <c r="D302" t="s">
-        <v>323</v>
+        <v>486</v>
       </c>
       <c r="E302" t="s">
-        <v>312</v>
+        <v>487</v>
       </c>
       <c r="F302" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="G302" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="H302" t="s">
         <v>51</v>
@@ -6104,21 +6143,21 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="B305" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C305" t="n">
-        <v>3.3985</v>
+        <v>3.444</v>
       </c>
       <c r="D305" t="s">
-        <v>488</v>
+        <v>323</v>
       </c>
       <c r="E305" t="s">
-        <v>489</v>
+        <v>312</v>
       </c>
       <c r="F305" t="s">
         <v>490</v>
@@ -6130,52 +6169,52 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
-      <c r="B306" t="s">
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
         <v>491</v>
       </c>
-      <c r="C306" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D306" t="s">
+    </row>
+    <row r="308" spans="1:8">
+      <c r="B308" t="s">
         <v>492</v>
       </c>
-      <c r="E306" t="s">
-        <v>31</v>
-      </c>
-      <c r="F306" t="s">
-        <v>51</v>
-      </c>
-      <c r="G306" t="s">
-        <v>51</v>
-      </c>
-      <c r="H306" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
+      <c r="C308" t="n">
+        <v>3.3985</v>
+      </c>
+      <c r="D308" t="s">
         <v>493</v>
+      </c>
+      <c r="E308" t="s">
+        <v>494</v>
+      </c>
+      <c r="F308" t="s">
+        <v>495</v>
+      </c>
+      <c r="G308" t="s">
+        <v>51</v>
+      </c>
+      <c r="H308" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="B309" t="s">
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="C309" t="n">
-        <v>3.3</v>
+        <v>3.615</v>
       </c>
       <c r="D309" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E309" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="F309" t="s">
-        <v>496</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>496</v>
+        <v>51</v>
       </c>
       <c r="H309" t="s">
         <v>51</v>
@@ -6183,15 +6222,15 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>498</v>
+        <v>368</v>
       </c>
       <c r="C312" t="n">
-        <v>3.63</v>
+        <v>3.3</v>
       </c>
       <c r="D312" t="s">
         <v>499</v>
@@ -6200,10 +6239,10 @@
         <v>500</v>
       </c>
       <c r="F312" t="s">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="G312" t="s">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="H312" t="s">
         <v>51</v>
@@ -6211,24 +6250,24 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C315" t="n">
-        <v>3.438</v>
+        <v>3.63</v>
       </c>
       <c r="D315" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="E315" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="F315" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="G315" t="s">
         <v>51</v>
@@ -6239,24 +6278,24 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
       <c r="C318" t="n">
-        <v>3.325</v>
+        <v>3.438</v>
       </c>
       <c r="D318" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="E318" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="F318" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G318" t="s">
         <v>51</v>
@@ -6267,24 +6306,24 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="C321" t="n">
-        <v>3.526</v>
+        <v>3.325</v>
       </c>
       <c r="D321" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E321" t="s">
-        <v>299</v>
+        <v>509</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="G321" t="s">
         <v>51</v>
@@ -6295,21 +6334,21 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="C324" t="n">
-        <v>3.706</v>
+        <v>3.526</v>
       </c>
       <c r="D324" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E324" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F324" t="s">
         <v>51</v>
@@ -6323,21 +6362,21 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="B327" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="C327" t="n">
-        <v>3.521</v>
+        <v>3.706</v>
       </c>
       <c r="D327" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E327" t="s">
-        <v>511</v>
+        <v>308</v>
       </c>
       <c r="F327" t="s">
         <v>51</v>
@@ -6351,21 +6390,21 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="B330" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="C330" t="n">
-        <v>3.6195</v>
+        <v>3.521</v>
       </c>
       <c r="D330" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E330" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F330" t="s">
         <v>51</v>
@@ -6379,21 +6418,21 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C333" t="n">
-        <v>3.778</v>
+        <v>3.6195</v>
       </c>
       <c r="D333" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E333" t="s">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="F333" t="s">
         <v>51</v>
@@ -6407,21 +6446,21 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="B336" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="C336" t="n">
-        <v>3.333</v>
+        <v>3.778</v>
       </c>
       <c r="D336" t="s">
-        <v>139</v>
+        <v>522</v>
       </c>
       <c r="E336" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F336" t="s">
         <v>51</v>
@@ -6435,24 +6474,24 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="B339" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C339" t="n">
-        <v>3.667</v>
+        <v>3.333</v>
       </c>
       <c r="D339" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="E339" t="s">
-        <v>356</v>
+        <v>88</v>
       </c>
       <c r="F339" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="G339" t="s">
         <v>51</v>
@@ -6463,24 +6502,24 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="B342" t="s">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="C342" t="n">
-        <v>3.3205</v>
+        <v>3.667</v>
       </c>
       <c r="D342" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
       <c r="E342" t="s">
-        <v>523</v>
+        <v>356</v>
       </c>
       <c r="F342" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="G342" t="s">
         <v>51</v>
@@ -6491,18 +6530,18 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="B345" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C345" t="n">
-        <v>2.925</v>
+        <v>3.3205</v>
       </c>
       <c r="D345" t="s">
-        <v>527</v>
+        <v>93</v>
       </c>
       <c r="E345" t="s">
         <v>528</v>
@@ -6511,105 +6550,105 @@
         <v>529</v>
       </c>
       <c r="G345" t="s">
-        <v>530</v>
+        <v>51</v>
       </c>
       <c r="H345" t="s">
-        <v>531</v>
+        <v>51</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="348" spans="1:8">
       <c r="B348" t="s">
+        <v>531</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="D348" t="s">
+        <v>532</v>
+      </c>
+      <c r="E348" t="s">
         <v>533</v>
       </c>
-      <c r="C348" t="n">
-        <v>2.401</v>
-      </c>
-      <c r="D348" t="s">
+      <c r="F348" t="s">
         <v>534</v>
       </c>
-      <c r="E348" t="s">
+      <c r="G348" t="s">
         <v>535</v>
       </c>
-      <c r="F348" t="s">
+      <c r="H348" t="s">
         <v>536</v>
-      </c>
-      <c r="G348" t="s">
-        <v>537</v>
-      </c>
-      <c r="H348" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="B351" t="s">
+        <v>538</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="D351" t="s">
+        <v>539</v>
+      </c>
+      <c r="E351" t="s">
         <v>540</v>
       </c>
-      <c r="C351" t="n">
+      <c r="F351" t="s">
+        <v>541</v>
+      </c>
+      <c r="G351" t="s">
+        <v>542</v>
+      </c>
+      <c r="H351" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="B354" t="s">
+        <v>545</v>
+      </c>
+      <c r="C354" t="n">
         <v>3.5165</v>
       </c>
-      <c r="D351" t="s">
-        <v>541</v>
-      </c>
-      <c r="E351" t="s">
-        <v>542</v>
-      </c>
-      <c r="F351" t="s">
+      <c r="D354" t="s">
+        <v>546</v>
+      </c>
+      <c r="E354" t="s">
+        <v>547</v>
+      </c>
+      <c r="F354" t="s">
         <v>108</v>
       </c>
-      <c r="G351" t="s">
-        <v>51</v>
-      </c>
-      <c r="H351" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="B352" t="s">
-        <v>533</v>
-      </c>
-      <c r="C352" t="n">
-        <v>2.5165</v>
-      </c>
-      <c r="D352" t="s">
-        <v>543</v>
-      </c>
-      <c r="E352" t="s">
-        <v>544</v>
-      </c>
-      <c r="F352" t="s">
-        <v>545</v>
-      </c>
-      <c r="G352" t="s">
-        <v>546</v>
-      </c>
-      <c r="H352" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" t="s">
-        <v>548</v>
+      <c r="G354" t="s">
+        <v>51</v>
+      </c>
+      <c r="H354" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="B355" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C355" t="n">
-        <v>2.433</v>
+        <v>2.5165</v>
       </c>
       <c r="D355" t="s">
-        <v>105</v>
+        <v>548</v>
       </c>
       <c r="E355" t="s">
         <v>549</v>
@@ -6631,103 +6670,103 @@
     </row>
     <row r="358" spans="1:8">
       <c r="B358" t="s">
+        <v>545</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="D358" t="s">
+        <v>105</v>
+      </c>
+      <c r="E358" t="s">
         <v>554</v>
       </c>
-      <c r="C358" t="n">
-        <v>2.508</v>
-      </c>
-      <c r="D358" t="s">
-        <v>341</v>
-      </c>
-      <c r="E358" t="s">
+      <c r="F358" t="s">
         <v>555</v>
       </c>
-      <c r="F358" t="s">
+      <c r="G358" t="s">
         <v>556</v>
       </c>
-      <c r="G358" t="s">
+      <c r="H358" t="s">
         <v>557</v>
-      </c>
-      <c r="H358" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="B361" t="s">
+        <v>559</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="D361" t="s">
+        <v>341</v>
+      </c>
+      <c r="E361" t="s">
         <v>560</v>
       </c>
-      <c r="C361" t="n">
+      <c r="F361" t="s">
+        <v>561</v>
+      </c>
+      <c r="G361" t="s">
+        <v>562</v>
+      </c>
+      <c r="H361" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="B364" t="s">
+        <v>565</v>
+      </c>
+      <c r="C364" t="n">
         <v>3.695</v>
       </c>
-      <c r="D361" t="s">
-        <v>561</v>
-      </c>
-      <c r="E361" t="s">
-        <v>562</v>
-      </c>
-      <c r="F361" t="s">
-        <v>563</v>
-      </c>
-      <c r="G361" t="s">
-        <v>51</v>
-      </c>
-      <c r="H361" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="B362" t="s">
-        <v>554</v>
-      </c>
-      <c r="C362" t="n">
+      <c r="D364" t="s">
+        <v>566</v>
+      </c>
+      <c r="E364" t="s">
+        <v>567</v>
+      </c>
+      <c r="F364" t="s">
+        <v>568</v>
+      </c>
+      <c r="G364" t="s">
+        <v>51</v>
+      </c>
+      <c r="H364" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="B365" t="s">
+        <v>559</v>
+      </c>
+      <c r="C365" t="n">
         <v>2.8391</v>
       </c>
-      <c r="D362" t="s">
-        <v>564</v>
-      </c>
-      <c r="E362" t="s">
-        <v>565</v>
-      </c>
-      <c r="F362" t="s">
-        <v>566</v>
-      </c>
-      <c r="G362" t="s">
-        <v>563</v>
-      </c>
-      <c r="H362" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="B363" t="s">
+      <c r="D365" t="s">
+        <v>569</v>
+      </c>
+      <c r="E365" t="s">
+        <v>570</v>
+      </c>
+      <c r="F365" t="s">
+        <v>571</v>
+      </c>
+      <c r="G365" t="s">
         <v>568</v>
       </c>
-      <c r="C363" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D363" t="s">
-        <v>569</v>
-      </c>
-      <c r="E363" t="s">
-        <v>570</v>
-      </c>
-      <c r="F363" t="s">
-        <v>571</v>
-      </c>
-      <c r="G363" t="s">
-        <v>51</v>
-      </c>
-      <c r="H363" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" t="s">
+      <c r="H365" t="s">
         <v>572</v>
       </c>
     </row>
@@ -6736,7 +6775,7 @@
         <v>573</v>
       </c>
       <c r="C366" t="n">
-        <v>3.219</v>
+        <v>3.6</v>
       </c>
       <c r="D366" t="s">
         <v>574</v>
@@ -6764,141 +6803,141 @@
         <v>578</v>
       </c>
       <c r="C369" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="D369" t="s">
+        <v>579</v>
+      </c>
+      <c r="E369" t="s">
+        <v>580</v>
+      </c>
+      <c r="F369" t="s">
+        <v>581</v>
+      </c>
+      <c r="G369" t="s">
+        <v>51</v>
+      </c>
+      <c r="H369" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
+        <v>583</v>
+      </c>
+      <c r="C372" t="n">
         <v>3.435</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D372" t="s">
         <v>267</v>
       </c>
-      <c r="E369" t="s">
-        <v>575</v>
-      </c>
-      <c r="F369" t="s">
-        <v>51</v>
-      </c>
-      <c r="G369" t="s">
-        <v>51</v>
-      </c>
-      <c r="H369" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>579</v>
-      </c>
-      <c r="C370" t="n">
+      <c r="E372" t="s">
+        <v>580</v>
+      </c>
+      <c r="F372" t="s">
+        <v>51</v>
+      </c>
+      <c r="G372" t="s">
+        <v>51</v>
+      </c>
+      <c r="H372" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="B373" t="s">
+        <v>584</v>
+      </c>
+      <c r="C373" t="n">
         <v>3.375</v>
       </c>
-      <c r="D370" t="s">
-        <v>580</v>
-      </c>
-      <c r="E370" t="s">
+      <c r="D373" t="s">
+        <v>585</v>
+      </c>
+      <c r="E373" t="s">
         <v>327</v>
       </c>
-      <c r="F370" t="s">
-        <v>51</v>
-      </c>
-      <c r="G370" t="s">
-        <v>51</v>
-      </c>
-      <c r="H370" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="B371" t="s">
-        <v>581</v>
-      </c>
-      <c r="C371" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D371" t="s">
-        <v>582</v>
-      </c>
-      <c r="E371" t="s">
-        <v>583</v>
-      </c>
-      <c r="F371" t="s">
-        <v>51</v>
-      </c>
-      <c r="G371" t="s">
-        <v>51</v>
-      </c>
-      <c r="H371" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="A373" t="s">
-        <v>584</v>
+      <c r="F373" t="s">
+        <v>51</v>
+      </c>
+      <c r="G373" t="s">
+        <v>51</v>
+      </c>
+      <c r="H373" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="B374" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C374" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D374" t="s">
+        <v>587</v>
+      </c>
+      <c r="E374" t="s">
+        <v>588</v>
+      </c>
+      <c r="F374" t="s">
+        <v>51</v>
+      </c>
+      <c r="G374" t="s">
+        <v>51</v>
+      </c>
+      <c r="H374" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="B377" t="s">
+        <v>590</v>
+      </c>
+      <c r="C377" t="n">
         <v>3.556</v>
       </c>
-      <c r="D374" t="s">
-        <v>586</v>
-      </c>
-      <c r="E374" t="s">
+      <c r="D377" t="s">
+        <v>591</v>
+      </c>
+      <c r="E377" t="s">
         <v>139</v>
       </c>
-      <c r="F374" t="s">
-        <v>485</v>
-      </c>
-      <c r="G374" t="s">
-        <v>51</v>
-      </c>
-      <c r="H374" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="B375" t="s">
-        <v>560</v>
-      </c>
-      <c r="C375" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D375" t="s">
-        <v>359</v>
-      </c>
-      <c r="E375" t="s">
-        <v>107</v>
-      </c>
-      <c r="F375" t="s">
-        <v>108</v>
-      </c>
-      <c r="G375" t="s">
-        <v>51</v>
-      </c>
-      <c r="H375" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="A377" t="s">
-        <v>587</v>
+      <c r="F377" t="s">
+        <v>490</v>
+      </c>
+      <c r="G377" t="s">
+        <v>51</v>
+      </c>
+      <c r="H377" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="B378" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C378" t="n">
-        <v>3.786</v>
+        <v>3.65</v>
       </c>
       <c r="D378" t="s">
-        <v>589</v>
+        <v>359</v>
       </c>
       <c r="E378" t="s">
-        <v>590</v>
+        <v>107</v>
       </c>
       <c r="F378" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="G378" t="s">
         <v>51</v>
@@ -6909,24 +6948,24 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="B381" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C381" t="n">
-        <v>3.4</v>
+        <v>3.786</v>
       </c>
       <c r="D381" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F381" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="G381" t="s">
         <v>51</v>
@@ -6937,30 +6976,30 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="B384" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="C384" t="n">
-        <v>3.316</v>
+        <v>3.4</v>
       </c>
       <c r="D384" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E384" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F384" t="s">
-        <v>597</v>
+        <v>213</v>
       </c>
       <c r="G384" t="s">
         <v>51</v>
       </c>
       <c r="H384" t="s">
-        <v>598</v>
+        <v>51</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -6970,88 +7009,47 @@
     </row>
     <row r="387" spans="1:8">
       <c r="B387" t="s">
+        <v>545</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="D387" t="s">
         <v>600</v>
       </c>
-      <c r="C387" t="n">
-        <v>4</v>
-      </c>
-      <c r="D387" t="s">
-        <v>67</v>
-      </c>
       <c r="E387" t="s">
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="F387" t="s">
-        <v>51</v>
+        <v>602</v>
       </c>
       <c r="G387" t="s">
         <v>51</v>
       </c>
       <c r="H387" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="B388" t="s">
-        <v>601</v>
-      </c>
-      <c r="C388" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D388" t="s">
-        <v>151</v>
-      </c>
-      <c r="E388" t="s">
-        <v>32</v>
-      </c>
-      <c r="F388" t="s">
-        <v>51</v>
-      </c>
-      <c r="G388" t="s">
-        <v>51</v>
-      </c>
-      <c r="H388" t="s">
-        <v>51</v>
+        <v>603</v>
       </c>
     </row>
     <row r="389" spans="1:8">
-      <c r="B389" t="s">
-        <v>602</v>
-      </c>
-      <c r="C389" t="n">
-        <v>4</v>
-      </c>
-      <c r="D389" t="s">
-        <v>67</v>
-      </c>
-      <c r="E389" t="s">
-        <v>51</v>
-      </c>
-      <c r="F389" t="s">
-        <v>51</v>
-      </c>
-      <c r="G389" t="s">
-        <v>51</v>
-      </c>
-      <c r="H389" t="s">
-        <v>51</v>
+      <c r="A389" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="B390" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C390" t="n">
-        <v>3.462</v>
+        <v>4</v>
       </c>
       <c r="D390" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="E390" t="s">
-        <v>421</v>
+        <v>51</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G390" t="s">
         <v>51</v>
@@ -7060,128 +7058,169 @@
         <v>51</v>
       </c>
     </row>
+    <row r="391" spans="1:8">
+      <c r="B391" t="s">
+        <v>606</v>
+      </c>
+      <c r="C391" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D391" t="s">
+        <v>151</v>
+      </c>
+      <c r="E391" t="s">
+        <v>32</v>
+      </c>
+      <c r="F391" t="s">
+        <v>51</v>
+      </c>
+      <c r="G391" t="s">
+        <v>51</v>
+      </c>
+      <c r="H391" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="392" spans="1:8">
-      <c r="A392" t="s">
-        <v>604</v>
+      <c r="B392" t="s">
+        <v>607</v>
+      </c>
+      <c r="C392" t="n">
+        <v>4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>67</v>
+      </c>
+      <c r="E392" t="s">
+        <v>51</v>
+      </c>
+      <c r="F392" t="s">
+        <v>51</v>
+      </c>
+      <c r="G392" t="s">
+        <v>51</v>
+      </c>
+      <c r="H392" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="B393" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C393" t="n">
-        <v>3.172</v>
+        <v>3.462</v>
       </c>
       <c r="D393" t="s">
-        <v>606</v>
+        <v>323</v>
       </c>
       <c r="E393" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F393" t="s">
-        <v>429</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
       <c r="H393" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="396" spans="1:8">
       <c r="B396" t="s">
+        <v>610</v>
+      </c>
+      <c r="C396" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="D396" t="s">
+        <v>611</v>
+      </c>
+      <c r="E396" t="s">
+        <v>426</v>
+      </c>
+      <c r="F396" t="s">
+        <v>429</v>
+      </c>
+      <c r="G396" t="s">
+        <v>429</v>
+      </c>
+      <c r="H396" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="B399" t="s">
         <v>361</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C399" t="n">
         <v>3.464</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D399" t="s">
         <v>259</v>
       </c>
-      <c r="E396" t="s">
-        <v>608</v>
-      </c>
-      <c r="F396" t="s">
+      <c r="E399" t="s">
+        <v>613</v>
+      </c>
+      <c r="F399" t="s">
         <v>336</v>
       </c>
-      <c r="G396" t="s">
-        <v>51</v>
-      </c>
-      <c r="H396" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="B397" t="s">
+      <c r="G399" t="s">
+        <v>51</v>
+      </c>
+      <c r="H399" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="B400" t="s">
         <v>360</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C400" t="n">
         <v>3.021</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D400" t="s">
         <v>89</v>
       </c>
-      <c r="E397" t="s">
-        <v>609</v>
-      </c>
-      <c r="F397" t="s">
-        <v>610</v>
-      </c>
-      <c r="G397" t="s">
-        <v>611</v>
-      </c>
-      <c r="H397" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="B398" t="s">
-        <v>358</v>
-      </c>
-      <c r="C398" t="n">
-        <v>3.356</v>
-      </c>
-      <c r="D398" t="s">
-        <v>612</v>
-      </c>
-      <c r="E398" t="s">
-        <v>613</v>
-      </c>
-      <c r="F398" t="s">
-        <v>141</v>
-      </c>
-      <c r="G398" t="s">
-        <v>51</v>
-      </c>
-      <c r="H398" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="A400" t="s">
+      <c r="E400" t="s">
         <v>614</v>
+      </c>
+      <c r="F400" t="s">
+        <v>615</v>
+      </c>
+      <c r="G400" t="s">
+        <v>616</v>
+      </c>
+      <c r="H400" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="B401" t="s">
-        <v>615</v>
+        <v>358</v>
       </c>
       <c r="C401" t="n">
-        <v>3.4425</v>
+        <v>3.356</v>
       </c>
       <c r="D401" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E401" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F401" t="s">
-        <v>563</v>
+        <v>141</v>
       </c>
       <c r="G401" t="s">
         <v>51</v>
@@ -7192,24 +7231,24 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="404" spans="1:8">
       <c r="B404" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C404" t="n">
-        <v>3.1</v>
+        <v>3.639</v>
       </c>
       <c r="D404" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E404" t="s">
-        <v>621</v>
+        <v>472</v>
       </c>
       <c r="F404" t="s">
-        <v>51</v>
+        <v>529</v>
       </c>
       <c r="G404" t="s">
         <v>51</v>
@@ -7228,7 +7267,7 @@
         <v>623</v>
       </c>
       <c r="C407" t="n">
-        <v>3.1345</v>
+        <v>3.4425</v>
       </c>
       <c r="D407" t="s">
         <v>624</v>
@@ -7237,76 +7276,35 @@
         <v>625</v>
       </c>
       <c r="F407" t="s">
+        <v>568</v>
+      </c>
+      <c r="G407" t="s">
+        <v>51</v>
+      </c>
+      <c r="H407" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" t="s">
         <v>626</v>
-      </c>
-      <c r="G407" t="s">
-        <v>627</v>
-      </c>
-      <c r="H407" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="B408" t="s">
-        <v>498</v>
-      </c>
-      <c r="C408" t="n">
-        <v>3.188</v>
-      </c>
-      <c r="D408" t="s">
-        <v>628</v>
-      </c>
-      <c r="E408" t="s">
-        <v>629</v>
-      </c>
-      <c r="F408" t="s">
-        <v>630</v>
-      </c>
-      <c r="G408" t="s">
-        <v>631</v>
-      </c>
-      <c r="H408" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
-      <c r="B409" t="s">
-        <v>632</v>
-      </c>
-      <c r="C409" t="n">
-        <v>3.371</v>
-      </c>
-      <c r="D409" t="s">
-        <v>549</v>
-      </c>
-      <c r="E409" t="s">
-        <v>92</v>
-      </c>
-      <c r="F409" t="s">
-        <v>201</v>
-      </c>
-      <c r="G409" t="s">
-        <v>51</v>
-      </c>
-      <c r="H409" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="B410" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C410" t="n">
-        <v>3.4605</v>
+        <v>3.1</v>
       </c>
       <c r="D410" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
       <c r="E410" t="s">
-        <v>323</v>
+        <v>629</v>
       </c>
       <c r="F410" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G410" t="s">
         <v>51</v>
@@ -7315,70 +7313,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
-      <c r="B411" t="s">
-        <v>634</v>
-      </c>
-      <c r="C411" t="n">
-        <v>3.302</v>
-      </c>
-      <c r="D411" t="s">
-        <v>295</v>
-      </c>
-      <c r="E411" t="s">
-        <v>635</v>
-      </c>
-      <c r="F411" t="s">
-        <v>636</v>
-      </c>
-      <c r="G411" t="s">
-        <v>51</v>
-      </c>
-      <c r="H411" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="412" spans="1:8">
-      <c r="B412" t="s">
-        <v>637</v>
-      </c>
-      <c r="C412" t="n">
-        <v>3.342</v>
-      </c>
-      <c r="D412" t="s">
-        <v>638</v>
-      </c>
-      <c r="E412" t="s">
-        <v>639</v>
-      </c>
-      <c r="F412" t="s">
-        <v>640</v>
-      </c>
-      <c r="G412" t="s">
-        <v>51</v>
-      </c>
-      <c r="H412" t="s">
-        <v>640</v>
+      <c r="A412" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="413" spans="1:8">
       <c r="B413" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C413" t="n">
-        <v>3.114</v>
+        <v>3.1345</v>
       </c>
       <c r="D413" t="s">
-        <v>107</v>
+        <v>632</v>
       </c>
       <c r="E413" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F413" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G413" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="H413" t="s">
         <v>51</v>
@@ -7386,47 +7343,88 @@
     </row>
     <row r="414" spans="1:8">
       <c r="B414" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="C414" t="n">
-        <v>3.467</v>
+        <v>3.188</v>
       </c>
       <c r="D414" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E414" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="F414" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G414" t="s">
-        <v>51</v>
+        <v>639</v>
       </c>
       <c r="H414" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="415" spans="1:8">
+      <c r="B415" t="s">
+        <v>640</v>
+      </c>
+      <c r="C415" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="D415" t="s">
+        <v>554</v>
+      </c>
+      <c r="E415" t="s">
+        <v>92</v>
+      </c>
+      <c r="F415" t="s">
+        <v>201</v>
+      </c>
+      <c r="G415" t="s">
+        <v>51</v>
+      </c>
+      <c r="H415" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="416" spans="1:8">
-      <c r="A416" t="s">
-        <v>648</v>
+      <c r="B416" t="s">
+        <v>641</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3.4605</v>
+      </c>
+      <c r="D416" t="s">
+        <v>486</v>
+      </c>
+      <c r="E416" t="s">
+        <v>323</v>
+      </c>
+      <c r="F416" t="s">
+        <v>211</v>
+      </c>
+      <c r="G416" t="s">
+        <v>51</v>
+      </c>
+      <c r="H416" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="B417" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="C417" t="n">
-        <v>3.4005</v>
+        <v>3.302</v>
       </c>
       <c r="D417" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="E417" t="s">
-        <v>92</v>
+        <v>643</v>
       </c>
       <c r="F417" t="s">
-        <v>51</v>
+        <v>644</v>
       </c>
       <c r="G417" t="s">
         <v>51</v>
@@ -7435,26 +7433,67 @@
         <v>51</v>
       </c>
     </row>
+    <row r="418" spans="1:8">
+      <c r="B418" t="s">
+        <v>645</v>
+      </c>
+      <c r="C418" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="D418" t="s">
+        <v>646</v>
+      </c>
+      <c r="E418" t="s">
+        <v>647</v>
+      </c>
+      <c r="F418" t="s">
+        <v>648</v>
+      </c>
+      <c r="G418" t="s">
+        <v>51</v>
+      </c>
+      <c r="H418" t="s">
+        <v>648</v>
+      </c>
+    </row>
     <row r="419" spans="1:8">
-      <c r="A419" t="s">
+      <c r="B419" t="s">
         <v>649</v>
+      </c>
+      <c r="C419" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="D419" t="s">
+        <v>107</v>
+      </c>
+      <c r="E419" t="s">
+        <v>650</v>
+      </c>
+      <c r="F419" t="s">
+        <v>651</v>
+      </c>
+      <c r="G419" t="s">
+        <v>652</v>
+      </c>
+      <c r="H419" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="B420" t="s">
-        <v>498</v>
+        <v>653</v>
       </c>
       <c r="C420" t="n">
-        <v>3.348</v>
+        <v>3.467</v>
       </c>
       <c r="D420" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E420" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F420" t="s">
-        <v>51</v>
+        <v>655</v>
       </c>
       <c r="G420" t="s">
         <v>51</v>
@@ -7463,95 +7502,54 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
-      <c r="B421" t="s">
-        <v>358</v>
-      </c>
-      <c r="C421" t="n">
-        <v>3.419</v>
-      </c>
-      <c r="D421" t="s">
-        <v>652</v>
-      </c>
-      <c r="E421" t="s">
-        <v>653</v>
-      </c>
-      <c r="F421" t="s">
-        <v>476</v>
-      </c>
-      <c r="G421" t="s">
-        <v>51</v>
-      </c>
-      <c r="H421" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="422" spans="1:8">
-      <c r="B422" t="s">
-        <v>619</v>
-      </c>
-      <c r="C422" t="n">
-        <v>4</v>
-      </c>
-      <c r="D422" t="s">
-        <v>67</v>
-      </c>
-      <c r="E422" t="s">
-        <v>51</v>
-      </c>
-      <c r="F422" t="s">
-        <v>51</v>
-      </c>
-      <c r="G422" t="s">
-        <v>51</v>
-      </c>
-      <c r="H422" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="A424" t="s">
-        <v>654</v>
+      <c r="A422" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="B423" t="s">
+        <v>627</v>
+      </c>
+      <c r="C423" t="n">
+        <v>3.4005</v>
+      </c>
+      <c r="D423" t="s">
+        <v>93</v>
+      </c>
+      <c r="E423" t="s">
+        <v>92</v>
+      </c>
+      <c r="F423" t="s">
+        <v>51</v>
+      </c>
+      <c r="G423" t="s">
+        <v>51</v>
+      </c>
+      <c r="H423" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="425" spans="1:8">
-      <c r="B425" t="s">
-        <v>655</v>
-      </c>
-      <c r="C425" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="D425" t="s">
-        <v>656</v>
-      </c>
-      <c r="E425" t="s">
-        <v>656</v>
-      </c>
-      <c r="F425" t="s">
-        <v>394</v>
-      </c>
-      <c r="G425" t="s">
-        <v>51</v>
-      </c>
-      <c r="H425" t="s">
-        <v>51</v>
+      <c r="A425" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="B426" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C426" t="n">
-        <v>3.45</v>
+        <v>3.655</v>
       </c>
       <c r="D426" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E426" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F426" t="s">
-        <v>51</v>
+        <v>429</v>
       </c>
       <c r="G426" t="s">
         <v>51</v>
@@ -7562,15 +7560,15 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="B429" t="s">
-        <v>660</v>
+        <v>503</v>
       </c>
       <c r="C429" t="n">
-        <v>3.472</v>
+        <v>3.348</v>
       </c>
       <c r="D429" t="s">
         <v>661</v>
@@ -7579,7 +7577,7 @@
         <v>662</v>
       </c>
       <c r="F429" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="G429" t="s">
         <v>51</v>
@@ -7588,51 +7586,92 @@
         <v>51</v>
       </c>
     </row>
+    <row r="430" spans="1:8">
+      <c r="B430" t="s">
+        <v>358</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="D430" t="s">
+        <v>663</v>
+      </c>
+      <c r="E430" t="s">
+        <v>664</v>
+      </c>
+      <c r="F430" t="s">
+        <v>481</v>
+      </c>
+      <c r="G430" t="s">
+        <v>51</v>
+      </c>
+      <c r="H430" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="431" spans="1:8">
-      <c r="A431" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="B432" t="s">
-        <v>588</v>
-      </c>
-      <c r="C432" t="n">
-        <v>3.842</v>
-      </c>
-      <c r="D432" t="s">
-        <v>664</v>
-      </c>
-      <c r="E432" t="s">
-        <v>301</v>
-      </c>
-      <c r="F432" t="s">
-        <v>51</v>
-      </c>
-      <c r="G432" t="s">
-        <v>51</v>
-      </c>
-      <c r="H432" t="s">
-        <v>51</v>
+      <c r="B431" t="s">
+        <v>627</v>
+      </c>
+      <c r="C431" t="n">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>67</v>
+      </c>
+      <c r="E431" t="s">
+        <v>51</v>
+      </c>
+      <c r="F431" t="s">
+        <v>51</v>
+      </c>
+      <c r="G431" t="s">
+        <v>51</v>
+      </c>
+      <c r="H431" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="434" spans="1:8">
-      <c r="A434" t="s">
-        <v>665</v>
+      <c r="B434" t="s">
+        <v>666</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D434" t="s">
+        <v>667</v>
+      </c>
+      <c r="E434" t="s">
+        <v>667</v>
+      </c>
+      <c r="F434" t="s">
+        <v>394</v>
+      </c>
+      <c r="G434" t="s">
+        <v>51</v>
+      </c>
+      <c r="H434" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="435" spans="1:8">
       <c r="B435" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C435" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="D435" t="s">
-        <v>323</v>
+        <v>669</v>
       </c>
       <c r="E435" t="s">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="F435" t="s">
         <v>51</v>
@@ -7646,24 +7685,24 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="B438" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="C438" t="n">
-        <v>3.4565</v>
+        <v>3.472</v>
       </c>
       <c r="D438" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E438" t="s">
-        <v>93</v>
+        <v>673</v>
       </c>
       <c r="F438" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="G438" t="s">
         <v>51</v>
@@ -7674,24 +7713,24 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="B441" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="C441" t="n">
-        <v>3.733</v>
+        <v>3.842</v>
       </c>
       <c r="D441" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E441" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="F441" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="G441" t="s">
         <v>51</v>
@@ -7702,21 +7741,21 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="B444" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D444" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="E444" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="F444" t="s">
         <v>51</v>
@@ -7730,156 +7769,156 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="B447" t="s">
-        <v>675</v>
+        <v>578</v>
       </c>
       <c r="C447" t="n">
+        <v>3.4565</v>
+      </c>
+      <c r="D447" t="s">
+        <v>679</v>
+      </c>
+      <c r="E447" t="s">
+        <v>93</v>
+      </c>
+      <c r="F447" t="s">
+        <v>213</v>
+      </c>
+      <c r="G447" t="s">
+        <v>51</v>
+      </c>
+      <c r="H447" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="B450" t="s">
+        <v>681</v>
+      </c>
+      <c r="C450" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D450" t="s">
+        <v>682</v>
+      </c>
+      <c r="E450" t="s">
+        <v>356</v>
+      </c>
+      <c r="F450" t="s">
+        <v>201</v>
+      </c>
+      <c r="G450" t="s">
+        <v>51</v>
+      </c>
+      <c r="H450" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="B453" t="s">
+        <v>684</v>
+      </c>
+      <c r="C453" t="n">
+        <v>4</v>
+      </c>
+      <c r="D453" t="s">
+        <v>67</v>
+      </c>
+      <c r="E453" t="s">
+        <v>51</v>
+      </c>
+      <c r="F453" t="s">
+        <v>51</v>
+      </c>
+      <c r="G453" t="s">
+        <v>51</v>
+      </c>
+      <c r="H453" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="B456" t="s">
+        <v>620</v>
+      </c>
+      <c r="C456" t="n">
+        <v>4</v>
+      </c>
+      <c r="D456" t="s">
+        <v>67</v>
+      </c>
+      <c r="E456" t="s">
+        <v>51</v>
+      </c>
+      <c r="F456" t="s">
+        <v>51</v>
+      </c>
+      <c r="G456" t="s">
+        <v>51</v>
+      </c>
+      <c r="H456" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="B459" t="s">
+        <v>687</v>
+      </c>
+      <c r="C459" t="n">
         <v>3.476</v>
       </c>
-      <c r="D447" t="s">
-        <v>676</v>
-      </c>
-      <c r="E447" t="s">
-        <v>677</v>
-      </c>
-      <c r="F447" t="s">
-        <v>51</v>
-      </c>
-      <c r="G447" t="s">
-        <v>51</v>
-      </c>
-      <c r="H447" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
-      <c r="B448" t="s">
-        <v>678</v>
-      </c>
-      <c r="C448" t="n">
-        <v>4</v>
-      </c>
-      <c r="D448" t="s">
-        <v>67</v>
-      </c>
-      <c r="E448" t="s">
-        <v>51</v>
-      </c>
-      <c r="F448" t="s">
-        <v>51</v>
-      </c>
-      <c r="G448" t="s">
-        <v>51</v>
-      </c>
-      <c r="H448" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
-      <c r="B451" t="s">
-        <v>680</v>
-      </c>
-      <c r="C451" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D451" t="s">
-        <v>681</v>
-      </c>
-      <c r="E451" t="s">
-        <v>682</v>
-      </c>
-      <c r="F451" t="s">
-        <v>51</v>
-      </c>
-      <c r="G451" t="s">
-        <v>51</v>
-      </c>
-      <c r="H451" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
-      <c r="B454" t="s">
-        <v>684</v>
-      </c>
-      <c r="C454" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="D454" t="s">
-        <v>685</v>
-      </c>
-      <c r="E454" t="s">
-        <v>686</v>
-      </c>
-      <c r="F454" t="s">
-        <v>51</v>
-      </c>
-      <c r="G454" t="s">
-        <v>51</v>
-      </c>
-      <c r="H454" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
-      <c r="B457" t="s">
-        <v>350</v>
-      </c>
-      <c r="C457" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D457" t="s">
+      <c r="D459" t="s">
         <v>688</v>
       </c>
-      <c r="E457" t="s">
+      <c r="E459" t="s">
         <v>689</v>
       </c>
-      <c r="F457" t="s">
-        <v>51</v>
-      </c>
-      <c r="G457" t="s">
-        <v>51</v>
-      </c>
-      <c r="H457" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="A459" t="s">
-        <v>690</v>
+      <c r="F459" t="s">
+        <v>51</v>
+      </c>
+      <c r="G459" t="s">
+        <v>51</v>
+      </c>
+      <c r="H459" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="460" spans="1:8">
       <c r="B460" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C460" t="n">
-        <v>3.792</v>
+        <v>4</v>
       </c>
       <c r="D460" t="s">
-        <v>692</v>
+        <v>67</v>
       </c>
       <c r="E460" t="s">
-        <v>693</v>
+        <v>51</v>
       </c>
       <c r="F460" t="s">
         <v>51</v>
@@ -7893,187 +7932,187 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="B463" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C463" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D463" t="s">
+        <v>693</v>
+      </c>
+      <c r="E463" t="s">
+        <v>694</v>
+      </c>
+      <c r="F463" t="s">
+        <v>51</v>
+      </c>
+      <c r="G463" t="s">
+        <v>51</v>
+      </c>
+      <c r="H463" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="B464" t="s">
+        <v>658</v>
+      </c>
+      <c r="C464" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D464" t="s">
+        <v>695</v>
+      </c>
+      <c r="E464" t="s">
+        <v>154</v>
+      </c>
+      <c r="F464" t="s">
+        <v>51</v>
+      </c>
+      <c r="G464" t="s">
+        <v>51</v>
+      </c>
+      <c r="H464" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="B467" t="s">
+        <v>697</v>
+      </c>
+      <c r="C467" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="D467" t="s">
+        <v>698</v>
+      </c>
+      <c r="E467" t="s">
+        <v>699</v>
+      </c>
+      <c r="F467" t="s">
+        <v>51</v>
+      </c>
+      <c r="G467" t="s">
+        <v>51</v>
+      </c>
+      <c r="H467" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="B470" t="s">
+        <v>350</v>
+      </c>
+      <c r="C470" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D470" t="s">
+        <v>701</v>
+      </c>
+      <c r="E470" t="s">
+        <v>702</v>
+      </c>
+      <c r="F470" t="s">
+        <v>51</v>
+      </c>
+      <c r="G470" t="s">
+        <v>51</v>
+      </c>
+      <c r="H470" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="B473" t="s">
+        <v>704</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="D473" t="s">
+        <v>705</v>
+      </c>
+      <c r="E473" t="s">
+        <v>706</v>
+      </c>
+      <c r="F473" t="s">
+        <v>51</v>
+      </c>
+      <c r="G473" t="s">
+        <v>51</v>
+      </c>
+      <c r="H473" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="B476" t="s">
+        <v>692</v>
+      </c>
+      <c r="C476" t="n">
         <v>3.409</v>
       </c>
-      <c r="D463" t="s">
-        <v>695</v>
-      </c>
-      <c r="E463" t="s">
-        <v>696</v>
-      </c>
-      <c r="F463" t="s">
-        <v>51</v>
-      </c>
-      <c r="G463" t="s">
-        <v>51</v>
-      </c>
-      <c r="H463" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="A465" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8">
-      <c r="B466" t="s">
-        <v>605</v>
-      </c>
-      <c r="C466" t="n">
-        <v>3.3955</v>
-      </c>
-      <c r="D466" t="s">
-        <v>646</v>
-      </c>
-      <c r="E466" t="s">
-        <v>698</v>
-      </c>
-      <c r="F466" t="s">
-        <v>699</v>
-      </c>
-      <c r="G466" t="s">
-        <v>51</v>
-      </c>
-      <c r="H466" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="A468" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
-      <c r="B469" t="s">
-        <v>641</v>
-      </c>
-      <c r="C469" t="n">
-        <v>3.3005</v>
-      </c>
-      <c r="D469" t="s">
-        <v>701</v>
-      </c>
-      <c r="E469" t="s">
-        <v>702</v>
-      </c>
-      <c r="F469" t="s">
-        <v>703</v>
-      </c>
-      <c r="G469" t="s">
-        <v>704</v>
-      </c>
-      <c r="H469" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="A471" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="B472" t="s">
-        <v>655</v>
-      </c>
-      <c r="C472" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="D472" t="s">
-        <v>692</v>
-      </c>
-      <c r="E472" t="s">
-        <v>693</v>
-      </c>
-      <c r="F472" t="s">
-        <v>51</v>
-      </c>
-      <c r="G472" t="s">
-        <v>51</v>
-      </c>
-      <c r="H472" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="A474" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="B475" t="s">
-        <v>645</v>
-      </c>
-      <c r="C475" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="D475" t="s">
-        <v>707</v>
-      </c>
-      <c r="E475" t="s">
+      <c r="D476" t="s">
         <v>708</v>
       </c>
-      <c r="F475" t="s">
-        <v>51</v>
-      </c>
-      <c r="G475" t="s">
-        <v>51</v>
-      </c>
-      <c r="H475" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="A477" t="s">
+      <c r="E476" t="s">
         <v>709</v>
       </c>
+      <c r="F476" t="s">
+        <v>51</v>
+      </c>
+      <c r="G476" t="s">
+        <v>51</v>
+      </c>
+      <c r="H476" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="478" spans="1:8">
-      <c r="B478" t="s">
-        <v>623</v>
-      </c>
-      <c r="C478" t="n">
-        <v>3.419</v>
-      </c>
-      <c r="D478" t="s">
+      <c r="A478" t="s">
         <v>710</v>
-      </c>
-      <c r="E478" t="s">
-        <v>711</v>
-      </c>
-      <c r="F478" t="s">
-        <v>51</v>
-      </c>
-      <c r="G478" t="s">
-        <v>51</v>
-      </c>
-      <c r="H478" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="B479" t="s">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="C479" t="n">
-        <v>3.394</v>
+        <v>3.3955</v>
       </c>
       <c r="D479" t="s">
-        <v>49</v>
+        <v>654</v>
       </c>
       <c r="E479" t="s">
+        <v>711</v>
+      </c>
+      <c r="F479" t="s">
         <v>712</v>
-      </c>
-      <c r="F479" t="s">
-        <v>51</v>
       </c>
       <c r="G479" t="s">
         <v>51</v>
@@ -8089,44 +8128,44 @@
     </row>
     <row r="482" spans="1:8">
       <c r="B482" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="C482" t="n">
-        <v>3.625</v>
+        <v>3.3005</v>
       </c>
       <c r="D482" t="s">
-        <v>327</v>
+        <v>714</v>
       </c>
       <c r="E482" t="s">
-        <v>580</v>
+        <v>715</v>
       </c>
       <c r="F482" t="s">
-        <v>51</v>
+        <v>716</v>
       </c>
       <c r="G482" t="s">
-        <v>51</v>
+        <v>717</v>
       </c>
       <c r="H482" t="s">
-        <v>51</v>
+        <v>717</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="B485" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="C485" t="n">
-        <v>3.694</v>
+        <v>3.792</v>
       </c>
       <c r="D485" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="E485" t="s">
-        <v>376</v>
+        <v>706</v>
       </c>
       <c r="F485" t="s">
         <v>51</v>
@@ -8140,175 +8179,134 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="488" spans="1:8">
       <c r="B488" t="s">
-        <v>718</v>
+        <v>653</v>
       </c>
       <c r="C488" t="n">
-        <v>3.075</v>
+        <v>3.815</v>
       </c>
       <c r="D488" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E488" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F488" t="s">
-        <v>721</v>
+        <v>51</v>
       </c>
       <c r="G488" t="s">
+        <v>51</v>
+      </c>
+      <c r="H488" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" t="s">
         <v>722</v>
       </c>
-      <c r="H488" t="s">
+    </row>
+    <row r="491" spans="1:8">
+      <c r="B491" t="s">
+        <v>631</v>
+      </c>
+      <c r="C491" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="D491" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="B489" t="s">
-        <v>208</v>
-      </c>
-      <c r="C489" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D489" t="s">
+      <c r="E491" t="s">
         <v>724</v>
       </c>
-      <c r="E489" t="s">
-        <v>225</v>
-      </c>
-      <c r="F489" t="s">
-        <v>51</v>
-      </c>
-      <c r="G489" t="s">
-        <v>51</v>
-      </c>
-      <c r="H489" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
-      <c r="A491" t="s">
-        <v>725</v>
+      <c r="F491" t="s">
+        <v>51</v>
+      </c>
+      <c r="G491" t="s">
+        <v>51</v>
+      </c>
+      <c r="H491" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="492" spans="1:8">
       <c r="B492" t="s">
+        <v>687</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3.394</v>
+      </c>
+      <c r="D492" t="s">
+        <v>49</v>
+      </c>
+      <c r="E492" t="s">
+        <v>725</v>
+      </c>
+      <c r="F492" t="s">
+        <v>51</v>
+      </c>
+      <c r="G492" t="s">
+        <v>51</v>
+      </c>
+      <c r="H492" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" t="s">
         <v>726</v>
       </c>
-      <c r="C492" t="n">
-        <v>3.607</v>
-      </c>
-      <c r="D492" t="s">
+    </row>
+    <row r="495" spans="1:8">
+      <c r="B495" t="s">
+        <v>590</v>
+      </c>
+      <c r="C495" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D495" t="s">
+        <v>327</v>
+      </c>
+      <c r="E495" t="s">
+        <v>585</v>
+      </c>
+      <c r="F495" t="s">
+        <v>51</v>
+      </c>
+      <c r="G495" t="s">
+        <v>51</v>
+      </c>
+      <c r="H495" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" t="s">
         <v>727</v>
-      </c>
-      <c r="E492" t="s">
-        <v>728</v>
-      </c>
-      <c r="F492" t="s">
-        <v>729</v>
-      </c>
-      <c r="G492" t="s">
-        <v>51</v>
-      </c>
-      <c r="H492" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="B493" t="s">
-        <v>730</v>
-      </c>
-      <c r="C493" t="n">
-        <v>3.567</v>
-      </c>
-      <c r="D493" t="s">
-        <v>541</v>
-      </c>
-      <c r="E493" t="s">
-        <v>731</v>
-      </c>
-      <c r="F493" t="s">
-        <v>51</v>
-      </c>
-      <c r="G493" t="s">
-        <v>51</v>
-      </c>
-      <c r="H493" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="B494" t="s">
-        <v>732</v>
-      </c>
-      <c r="C494" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D494" t="s">
-        <v>92</v>
-      </c>
-      <c r="E494" t="s">
-        <v>93</v>
-      </c>
-      <c r="F494" t="s">
-        <v>51</v>
-      </c>
-      <c r="G494" t="s">
-        <v>51</v>
-      </c>
-      <c r="H494" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8">
-      <c r="A496" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="B497" t="s">
-        <v>734</v>
-      </c>
-      <c r="C497" t="n">
-        <v>3.635</v>
-      </c>
-      <c r="D497" t="s">
-        <v>735</v>
-      </c>
-      <c r="E497" t="s">
-        <v>736</v>
-      </c>
-      <c r="F497" t="s">
-        <v>178</v>
-      </c>
-      <c r="G497" t="s">
-        <v>51</v>
-      </c>
-      <c r="H497" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="B498" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C498" t="n">
-        <v>3.31</v>
+        <v>3.694</v>
       </c>
       <c r="D498" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E498" t="s">
-        <v>739</v>
+        <v>376</v>
       </c>
       <c r="F498" t="s">
-        <v>740</v>
+        <v>51</v>
       </c>
       <c r="G498" t="s">
-        <v>741</v>
+        <v>51</v>
       </c>
       <c r="H498" t="s">
         <v>51</v>
@@ -8316,277 +8314,318 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="501" spans="1:8">
       <c r="B501" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C501" t="n">
-        <v>3.238</v>
+        <v>3.075</v>
       </c>
       <c r="D501" t="s">
+        <v>732</v>
+      </c>
+      <c r="E501" t="s">
+        <v>733</v>
+      </c>
+      <c r="F501" t="s">
+        <v>734</v>
+      </c>
+      <c r="G501" t="s">
+        <v>735</v>
+      </c>
+      <c r="H501" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="B502" t="s">
+        <v>208</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D502" t="s">
+        <v>737</v>
+      </c>
+      <c r="E502" t="s">
+        <v>225</v>
+      </c>
+      <c r="F502" t="s">
+        <v>51</v>
+      </c>
+      <c r="G502" t="s">
+        <v>51</v>
+      </c>
+      <c r="H502" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
+        <v>739</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="D505" t="s">
+        <v>740</v>
+      </c>
+      <c r="E505" t="s">
+        <v>741</v>
+      </c>
+      <c r="F505" t="s">
+        <v>742</v>
+      </c>
+      <c r="G505" t="s">
+        <v>51</v>
+      </c>
+      <c r="H505" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="B506" t="s">
         <v>743</v>
       </c>
-      <c r="E501" t="s">
-        <v>455</v>
-      </c>
-      <c r="F501" t="s">
-        <v>336</v>
-      </c>
-      <c r="G501" t="s">
-        <v>51</v>
-      </c>
-      <c r="H501" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" t="s">
+      <c r="C506" t="n">
+        <v>3.567</v>
+      </c>
+      <c r="D506" t="s">
+        <v>546</v>
+      </c>
+      <c r="E506" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="B504" t="s">
-        <v>206</v>
-      </c>
-      <c r="C504" t="n">
-        <v>3.489</v>
-      </c>
-      <c r="D504" t="s">
-        <v>745</v>
-      </c>
-      <c r="E504" t="s">
-        <v>322</v>
-      </c>
-      <c r="F504" t="s">
-        <v>611</v>
-      </c>
-      <c r="G504" t="s">
-        <v>51</v>
-      </c>
-      <c r="H504" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
-        <v>746</v>
+      <c r="F506" t="s">
+        <v>51</v>
+      </c>
+      <c r="G506" t="s">
+        <v>51</v>
+      </c>
+      <c r="H506" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="507" spans="1:8">
       <c r="B507" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C507" t="n">
-        <v>3.661</v>
+        <v>3.6</v>
       </c>
       <c r="D507" t="s">
-        <v>748</v>
+        <v>92</v>
       </c>
       <c r="E507" t="s">
-        <v>749</v>
+        <v>93</v>
       </c>
       <c r="F507" t="s">
-        <v>750</v>
+        <v>51</v>
       </c>
       <c r="G507" t="s">
-        <v>750</v>
+        <v>51</v>
       </c>
       <c r="H507" t="s">
-        <v>750</v>
+        <v>51</v>
       </c>
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="510" spans="1:8">
       <c r="B510" t="s">
+        <v>747</v>
+      </c>
+      <c r="C510" t="n">
+        <v>3.635</v>
+      </c>
+      <c r="D510" t="s">
+        <v>748</v>
+      </c>
+      <c r="E510" t="s">
+        <v>749</v>
+      </c>
+      <c r="F510" t="s">
+        <v>178</v>
+      </c>
+      <c r="G510" t="s">
+        <v>51</v>
+      </c>
+      <c r="H510" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="B511" t="s">
+        <v>750</v>
+      </c>
+      <c r="C511" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D511" t="s">
+        <v>751</v>
+      </c>
+      <c r="E511" t="s">
         <v>752</v>
       </c>
-      <c r="C510" t="n">
+      <c r="F511" t="s">
+        <v>753</v>
+      </c>
+      <c r="G511" t="s">
+        <v>754</v>
+      </c>
+      <c r="H511" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
+        <v>739</v>
+      </c>
+      <c r="C514" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="D514" t="s">
+        <v>756</v>
+      </c>
+      <c r="E514" t="s">
+        <v>460</v>
+      </c>
+      <c r="F514" t="s">
+        <v>336</v>
+      </c>
+      <c r="G514" t="s">
+        <v>51</v>
+      </c>
+      <c r="H514" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="B517" t="s">
+        <v>206</v>
+      </c>
+      <c r="C517" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="D517" t="s">
+        <v>758</v>
+      </c>
+      <c r="E517" t="s">
+        <v>322</v>
+      </c>
+      <c r="F517" t="s">
+        <v>616</v>
+      </c>
+      <c r="G517" t="s">
+        <v>51</v>
+      </c>
+      <c r="H517" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="B520" t="s">
+        <v>760</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3.661</v>
+      </c>
+      <c r="D520" t="s">
+        <v>761</v>
+      </c>
+      <c r="E520" t="s">
+        <v>762</v>
+      </c>
+      <c r="F520" t="s">
+        <v>763</v>
+      </c>
+      <c r="G520" t="s">
+        <v>763</v>
+      </c>
+      <c r="H520" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="B523" t="s">
+        <v>765</v>
+      </c>
+      <c r="C523" t="n">
         <v>2.5945</v>
       </c>
-      <c r="D510" t="s">
-        <v>753</v>
-      </c>
-      <c r="E510" t="s">
+      <c r="D523" t="s">
+        <v>766</v>
+      </c>
+      <c r="E523" t="s">
         <v>43</v>
       </c>
-      <c r="F510" t="s">
-        <v>754</v>
-      </c>
-      <c r="G510" t="s">
-        <v>755</v>
-      </c>
-      <c r="H510" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
-      <c r="B513" t="s">
-        <v>758</v>
-      </c>
-      <c r="C513" t="n">
-        <v>2.904</v>
-      </c>
-      <c r="D513" t="s">
-        <v>759</v>
-      </c>
-      <c r="E513" t="s">
-        <v>760</v>
-      </c>
-      <c r="F513" t="s">
-        <v>761</v>
-      </c>
-      <c r="G513" t="s">
-        <v>762</v>
-      </c>
-      <c r="H513" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
-      <c r="A515" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
-      <c r="B516" t="s">
-        <v>764</v>
-      </c>
-      <c r="C516" t="n">
-        <v>3.446</v>
-      </c>
-      <c r="D516" t="s">
-        <v>441</v>
-      </c>
-      <c r="E516" t="s">
-        <v>765</v>
-      </c>
-      <c r="F516" t="s">
-        <v>13</v>
-      </c>
-      <c r="G516" t="s">
-        <v>51</v>
-      </c>
-      <c r="H516" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="B519" t="s">
+      <c r="F523" t="s">
         <v>767</v>
       </c>
-      <c r="C519" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="D519" t="s">
-        <v>89</v>
-      </c>
-      <c r="E519" t="s">
-        <v>92</v>
-      </c>
-      <c r="F519" t="s">
+      <c r="G523" t="s">
         <v>768</v>
       </c>
-      <c r="G519" t="s">
-        <v>768</v>
-      </c>
-      <c r="H519" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="A521" t="s">
+      <c r="H523" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
-      <c r="B522" t="s">
-        <v>208</v>
-      </c>
-      <c r="C522" t="n">
-        <v>3.494</v>
-      </c>
-      <c r="D522" t="s">
+    <row r="525" spans="1:8">
+      <c r="A525" t="s">
         <v>770</v>
-      </c>
-      <c r="E522" t="s">
-        <v>771</v>
-      </c>
-      <c r="F522" t="s">
-        <v>530</v>
-      </c>
-      <c r="G522" t="s">
-        <v>394</v>
-      </c>
-      <c r="H522" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="A524" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="B525" t="s">
-        <v>773</v>
-      </c>
-      <c r="C525" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="D525" t="s">
-        <v>774</v>
-      </c>
-      <c r="E525" t="s">
-        <v>774</v>
-      </c>
-      <c r="F525" t="s">
-        <v>485</v>
-      </c>
-      <c r="G525" t="s">
-        <v>51</v>
-      </c>
-      <c r="H525" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="526" spans="1:8">
       <c r="B526" t="s">
+        <v>771</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="D526" t="s">
+        <v>772</v>
+      </c>
+      <c r="E526" t="s">
+        <v>773</v>
+      </c>
+      <c r="F526" t="s">
+        <v>774</v>
+      </c>
+      <c r="G526" t="s">
         <v>775</v>
       </c>
-      <c r="C526" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D526" t="s">
-        <v>541</v>
-      </c>
-      <c r="E526" t="s">
-        <v>139</v>
-      </c>
-      <c r="F526" t="s">
-        <v>213</v>
-      </c>
-      <c r="G526" t="s">
-        <v>51</v>
-      </c>
       <c r="H526" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -8596,19 +8635,19 @@
     </row>
     <row r="529" spans="1:8">
       <c r="B529" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
       <c r="C529" t="n">
-        <v>4</v>
+        <v>3.446</v>
       </c>
       <c r="D529" t="s">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="E529" t="s">
-        <v>51</v>
+        <v>778</v>
       </c>
       <c r="F529" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G529" t="s">
         <v>51</v>
@@ -8619,109 +8658,109 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="532" spans="1:8">
       <c r="B532" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C532" t="n">
-        <v>3.6795</v>
+        <v>3.108</v>
       </c>
       <c r="D532" t="s">
-        <v>779</v>
+        <v>89</v>
       </c>
       <c r="E532" t="s">
-        <v>780</v>
+        <v>92</v>
       </c>
       <c r="F532" t="s">
-        <v>51</v>
+        <v>781</v>
       </c>
       <c r="G532" t="s">
-        <v>51</v>
+        <v>781</v>
       </c>
       <c r="H532" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
-      <c r="B533" t="s">
-        <v>781</v>
-      </c>
-      <c r="C533" t="n">
-        <v>3.4887</v>
-      </c>
-      <c r="D533" t="s">
+    <row r="534" spans="1:8">
+      <c r="A534" t="s">
         <v>782</v>
       </c>
-      <c r="E533" t="s">
+    </row>
+    <row r="535" spans="1:8">
+      <c r="B535" t="s">
+        <v>208</v>
+      </c>
+      <c r="C535" t="n">
+        <v>3.494</v>
+      </c>
+      <c r="D535" t="s">
         <v>783</v>
       </c>
-      <c r="F533" t="s">
+      <c r="E535" t="s">
         <v>784</v>
       </c>
-      <c r="G533" t="s">
-        <v>51</v>
-      </c>
-      <c r="H533" t="s">
+      <c r="F535" t="s">
+        <v>535</v>
+      </c>
+      <c r="G535" t="s">
+        <v>394</v>
+      </c>
+      <c r="H535" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
-      <c r="A535" t="s">
+    <row r="538" spans="1:8">
+      <c r="B538" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="B536" t="s">
+      <c r="C538" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="D538" t="s">
         <v>787</v>
       </c>
-      <c r="C536" t="n">
-        <v>4</v>
-      </c>
-      <c r="D536" t="s">
-        <v>67</v>
-      </c>
-      <c r="E536" t="s">
-        <v>51</v>
-      </c>
-      <c r="F536" t="s">
-        <v>51</v>
-      </c>
-      <c r="G536" t="s">
-        <v>51</v>
-      </c>
-      <c r="H536" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="A538" t="s">
-        <v>788</v>
+      <c r="E538" t="s">
+        <v>787</v>
+      </c>
+      <c r="F538" t="s">
+        <v>490</v>
+      </c>
+      <c r="G538" t="s">
+        <v>51</v>
+      </c>
+      <c r="H538" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="539" spans="1:8">
       <c r="B539" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="C539" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D539" t="s">
-        <v>67</v>
+        <v>546</v>
       </c>
       <c r="E539" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F539" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="G539" t="s">
         <v>51</v>
       </c>
       <c r="H539" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -8731,95 +8770,95 @@
     </row>
     <row r="542" spans="1:8">
       <c r="B542" t="s">
+        <v>731</v>
+      </c>
+      <c r="C542" t="n">
+        <v>4</v>
+      </c>
+      <c r="D542" t="s">
+        <v>67</v>
+      </c>
+      <c r="E542" t="s">
+        <v>51</v>
+      </c>
+      <c r="F542" t="s">
+        <v>51</v>
+      </c>
+      <c r="G542" t="s">
+        <v>51</v>
+      </c>
+      <c r="H542" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" t="s">
         <v>790</v>
       </c>
-      <c r="C542" t="n">
-        <v>3.306</v>
-      </c>
-      <c r="D542" t="s">
-        <v>376</v>
-      </c>
-      <c r="E542" t="s">
-        <v>716</v>
-      </c>
-      <c r="F542" t="s">
-        <v>51</v>
-      </c>
-      <c r="G542" t="s">
-        <v>51</v>
-      </c>
-      <c r="H542" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="B543" t="s">
-        <v>747</v>
-      </c>
-      <c r="C543" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="D543" t="s">
-        <v>582</v>
-      </c>
-      <c r="E543" t="s">
-        <v>583</v>
-      </c>
-      <c r="F543" t="s">
-        <v>51</v>
-      </c>
-      <c r="G543" t="s">
-        <v>51</v>
-      </c>
-      <c r="H543" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="545" spans="1:8">
-      <c r="A545" t="s">
+      <c r="B545" t="s">
         <v>791</v>
+      </c>
+      <c r="C545" t="n">
+        <v>3.6795</v>
+      </c>
+      <c r="D545" t="s">
+        <v>792</v>
+      </c>
+      <c r="E545" t="s">
+        <v>793</v>
+      </c>
+      <c r="F545" t="s">
+        <v>51</v>
+      </c>
+      <c r="G545" t="s">
+        <v>51</v>
+      </c>
+      <c r="H545" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="B546" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="C546" t="n">
-        <v>3.63</v>
+        <v>3.4887</v>
       </c>
       <c r="D546" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E546" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F546" t="s">
-        <v>51</v>
+        <v>797</v>
       </c>
       <c r="G546" t="s">
         <v>51</v>
       </c>
       <c r="H546" t="s">
-        <v>51</v>
+        <v>798</v>
       </c>
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="B549" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C549" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D549" t="s">
-        <v>621</v>
+        <v>67</v>
       </c>
       <c r="E549" t="s">
-        <v>620</v>
+        <v>51</v>
       </c>
       <c r="F549" t="s">
         <v>51</v>
@@ -8833,21 +8872,21 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="552" spans="1:8">
       <c r="B552" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="C552" t="n">
-        <v>3.971</v>
+        <v>4</v>
       </c>
       <c r="D552" t="s">
-        <v>797</v>
+        <v>67</v>
       </c>
       <c r="E552" t="s">
-        <v>798</v>
+        <v>51</v>
       </c>
       <c r="F552" t="s">
         <v>51</v>
@@ -8861,85 +8900,220 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="B555" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C555" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="D555" t="s">
+        <v>376</v>
+      </c>
+      <c r="E555" t="s">
+        <v>729</v>
+      </c>
+      <c r="F555" t="s">
+        <v>51</v>
+      </c>
+      <c r="G555" t="s">
+        <v>51</v>
+      </c>
+      <c r="H555" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="B556" t="s">
+        <v>760</v>
+      </c>
+      <c r="C556" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="D556" t="s">
+        <v>587</v>
+      </c>
+      <c r="E556" t="s">
+        <v>588</v>
+      </c>
+      <c r="F556" t="s">
+        <v>51</v>
+      </c>
+      <c r="G556" t="s">
+        <v>51</v>
+      </c>
+      <c r="H556" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
+        <v>771</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D559" t="s">
+        <v>805</v>
+      </c>
+      <c r="E559" t="s">
+        <v>806</v>
+      </c>
+      <c r="F559" t="s">
+        <v>51</v>
+      </c>
+      <c r="G559" t="s">
+        <v>51</v>
+      </c>
+      <c r="H559" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="B562" t="s">
+        <v>808</v>
+      </c>
+      <c r="C562" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D562" t="s">
+        <v>629</v>
+      </c>
+      <c r="E562" t="s">
+        <v>628</v>
+      </c>
+      <c r="F562" t="s">
+        <v>51</v>
+      </c>
+      <c r="G562" t="s">
+        <v>51</v>
+      </c>
+      <c r="H562" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="B565" t="s">
+        <v>808</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="D565" t="s">
+        <v>810</v>
+      </c>
+      <c r="E565" t="s">
+        <v>811</v>
+      </c>
+      <c r="F565" t="s">
+        <v>51</v>
+      </c>
+      <c r="G565" t="s">
+        <v>51</v>
+      </c>
+      <c r="H565" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="B568" t="s">
+        <v>813</v>
+      </c>
+      <c r="C568" t="n">
         <v>3.634</v>
       </c>
-      <c r="D555" t="s">
-        <v>801</v>
-      </c>
-      <c r="E555" t="s">
-        <v>802</v>
-      </c>
-      <c r="F555" t="s">
-        <v>51</v>
-      </c>
-      <c r="G555" t="s">
-        <v>51</v>
-      </c>
-      <c r="H555" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="A557" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="B558" t="s">
-        <v>767</v>
-      </c>
-      <c r="C558" t="n">
+      <c r="D568" t="s">
+        <v>814</v>
+      </c>
+      <c r="E568" t="s">
+        <v>815</v>
+      </c>
+      <c r="F568" t="s">
+        <v>51</v>
+      </c>
+      <c r="G568" t="s">
+        <v>51</v>
+      </c>
+      <c r="H568" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="B571" t="s">
+        <v>780</v>
+      </c>
+      <c r="C571" t="n">
         <v>3.714</v>
       </c>
-      <c r="D558" t="s">
-        <v>804</v>
-      </c>
-      <c r="E558" t="s">
+      <c r="D571" t="s">
+        <v>817</v>
+      </c>
+      <c r="E571" t="s">
         <v>89</v>
       </c>
-      <c r="F558" t="s">
-        <v>51</v>
-      </c>
-      <c r="G558" t="s">
-        <v>51</v>
-      </c>
-      <c r="H558" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="A560" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="B561" t="s">
-        <v>806</v>
-      </c>
-      <c r="C561" t="n">
+      <c r="F571" t="s">
+        <v>51</v>
+      </c>
+      <c r="G571" t="s">
+        <v>51</v>
+      </c>
+      <c r="H571" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="B574" t="s">
+        <v>819</v>
+      </c>
+      <c r="C574" t="n">
         <v>4</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D574" t="s">
         <v>67</v>
       </c>
-      <c r="E561" t="s">
-        <v>51</v>
-      </c>
-      <c r="F561" t="s">
-        <v>51</v>
-      </c>
-      <c r="G561" t="s">
-        <v>51</v>
-      </c>
-      <c r="H561" t="s">
+      <c r="E574" t="s">
+        <v>51</v>
+      </c>
+      <c r="F574" t="s">
+        <v>51</v>
+      </c>
+      <c r="G574" t="s">
+        <v>51</v>
+      </c>
+      <c r="H574" t="s">
         <v>51</v>
       </c>
     </row>
